--- a/data/MCC 19367_C1.xlsx
+++ b/data/MCC 19367_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallahja/Moffitt Cancer Center Dropbox/Jill Gallaher/0Trials/mCSPC_AT/early_progressors/source/early_progressors_code_FINAL/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gallahja/Moffitt Cancer Center Dropbox/Jill Gallaher/MyPapers/InProgress/PCa early progressors/early_progressors_code_FINAL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABA7905-18D5-BA44-B76B-74A56E807584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808509FB-AA53-2B4B-8602-D78516411D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="8280" windowWidth="30220" windowHeight="13580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4780" yWindow="23760" windowWidth="27580" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet name="115" sheetId="18" r:id="rId15"/>
     <sheet name="116" sheetId="19" r:id="rId16"/>
     <sheet name="117" sheetId="20" r:id="rId17"/>
-    <sheet name="Sheet3" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="76">
   <si>
     <t>Gleason</t>
   </si>
@@ -58,46 +57,16 @@
     <t>abi</t>
   </si>
   <si>
-    <t>12 wk dose on 6/14/19</t>
-  </si>
-  <si>
-    <t>Abi 7/18 - 9/30/19</t>
-  </si>
-  <si>
     <t xml:space="preserve">12 wk dose </t>
-  </si>
-  <si>
-    <t>abi between 8 &amp; 10/9/19</t>
-  </si>
-  <si>
-    <t>8/5/19, 12 wk dose</t>
-  </si>
-  <si>
-    <t>enza 1/17/20-3/10/20</t>
   </si>
   <si>
     <t>16 weeks leuprolide</t>
   </si>
   <si>
-    <t>enza 5/13- 7/16</t>
-  </si>
-  <si>
     <t>12 wk leuprolide</t>
   </si>
   <si>
-    <t>12 wk leuprolide on 11/17/20</t>
-  </si>
-  <si>
-    <t>enzalutamide 80 mg 12/26/20 - 2/24/21</t>
-  </si>
-  <si>
     <t>Enzalutamide 80 mg (dose reduced due to plavix)</t>
-  </si>
-  <si>
-    <t>12 wk leuprolide on 11/6/20</t>
-  </si>
-  <si>
-    <t>12/2020 - 2/2/21, enzalutamide</t>
   </si>
   <si>
     <t>12 wk of Leuprolide</t>
@@ -106,46 +75,19 @@
     <t>12 weeks of leuprolide</t>
   </si>
   <si>
-    <t>1/15/21 - 3/14/21, enzalutamide 160 mg daily</t>
-  </si>
-  <si>
-    <t>12 weeks of leuprolide on 10/5</t>
-  </si>
-  <si>
     <t>bicalutamide</t>
-  </si>
-  <si>
-    <t>4/2021 - 6/2/21, added enzalutamide</t>
-  </si>
-  <si>
-    <t>4/6/21- 6/1/21, added enzalutamide</t>
   </si>
   <si>
     <t>12 weeks Trelstar</t>
   </si>
   <si>
-    <t>4/8/21 - 6/8/21, added abiraterone</t>
-  </si>
-  <si>
-    <t>4/25/21- 6/18/21, apalutamide</t>
-  </si>
-  <si>
     <t>started bicalutamide</t>
-  </si>
-  <si>
-    <t>9/15/21, 12 wk leuprolide</t>
   </si>
   <si>
     <t>relugolix</t>
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>GnRH</t>
-  </si>
-  <si>
-    <t>12 weeks of leuprolide 3/23/22</t>
   </si>
   <si>
     <t>PSA</t>
@@ -229,9 +171,6 @@
     <t>12 wks</t>
   </si>
   <si>
-    <t>other assumed 2 here!</t>
-  </si>
-  <si>
     <t>PSA progression (days)</t>
   </si>
   <si>
@@ -256,9 +195,6 @@
     <t>PSA&lt;.02,T&lt;3</t>
   </si>
   <si>
-    <t>8 wk abi between 8 &amp; 9/2019; T&lt;3</t>
-  </si>
-  <si>
     <t>Days</t>
   </si>
   <si>
@@ -274,12 +210,6 @@
     <t>Apa</t>
   </si>
   <si>
-    <t>enza, 5/14-7/31/20; T&lt;3</t>
-  </si>
-  <si>
-    <t>changed this!</t>
-  </si>
-  <si>
     <t>abi; T&lt;3</t>
   </si>
   <si>
@@ -292,22 +222,70 @@
     <t>T unknown; taken from high value at start of next GnRH</t>
   </si>
   <si>
-    <t>bicalutamide between 10/2 and 12/5</t>
-  </si>
-  <si>
     <t>PSA&lt;.03</t>
   </si>
   <si>
     <t>T&lt;4.33</t>
   </si>
   <si>
-    <t>3/25/21, 12 wk Leuprolide; T&gt;1500</t>
-  </si>
-  <si>
     <t>Testosterone</t>
   </si>
   <si>
     <t>Cycle</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>abi between day 31-100</t>
+  </si>
+  <si>
+    <t>enza day 36-100</t>
+  </si>
+  <si>
+    <t>enza, day 41-119; T&lt;3</t>
+  </si>
+  <si>
+    <t>enzalutamide 80 mg day 39 - 99</t>
+  </si>
+  <si>
+    <t>enzalutamide, day 28-88</t>
+  </si>
+  <si>
+    <t>bicalutamide between day-74 and -10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enzalutamide 160 mg daily, day 31-89</t>
+  </si>
+  <si>
+    <t>added enzalutamide, day 30 - 92</t>
+  </si>
+  <si>
+    <t>added enzalutamide, day 32-88</t>
+  </si>
+  <si>
+    <t>added abiraterone, day 28 - 89</t>
+  </si>
+  <si>
+    <t>T&gt;1500</t>
+  </si>
+  <si>
+    <t>apalutamide, day 31-85</t>
+  </si>
+  <si>
+    <t>12 wk Leuprolide</t>
+  </si>
+  <si>
+    <t>Abi day 34-108</t>
+  </si>
+  <si>
+    <t>enza day 39-92</t>
+  </si>
+  <si>
+    <t>8 wk abi between day 31-92; T&lt;3</t>
+  </si>
+  <si>
+    <t>Abi day 41-96</t>
   </si>
 </sst>
 </file>
@@ -538,7 +516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -597,6 +574,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -912,7 +890,7 @@
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
@@ -922,52 +900,51 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="48">
+      <c r="A2" s="47">
         <v>102</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="47">
         <v>8</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="49">
+      <c r="C2" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="48">
         <v>462</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="48">
         <v>840</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="48">
         <v>1039</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -978,23 +955,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1005,23 +981,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1032,87 +1007,84 @@
         <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>106</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>8</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="46">
+      <c r="C6" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="45">
         <v>1296</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45">
         <v>1593</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>107</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>8</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="46">
+      <c r="C7" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="45">
         <v>849</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>849</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>989</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1127,48 +1099,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>109</v>
       </c>
-      <c r="B9" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="49">
+      <c r="B9" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="48">
         <v>623</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <v>889</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="42"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1179,56 +1149,54 @@
         <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>111</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="47">
         <v>8</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="49">
+      <c r="C11" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="48">
         <v>350</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="48">
         <v>735</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="48">
         <v>903</v>
       </c>
-      <c r="I11" s="42"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1239,23 +1207,22 @@
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1266,23 +1233,22 @@
         <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1293,23 +1259,22 @@
         <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1320,54 +1285,52 @@
         <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>116</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="46">
+      <c r="B16" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="45">
         <v>803</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
@@ -1376,20 +1339,20 @@
         <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -1409,47 +1372,47 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D4C7ED-69D9-654E-A992-F52988264B6D}">
-  <dimension ref="A2:J34"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33">
+      <c r="A3" s="32">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32">
         <v>1</v>
       </c>
       <c r="C3">
@@ -1459,7 +1422,7 @@
         <v>478.3</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
@@ -1470,14 +1433,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>39</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="C4">
@@ -1487,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -1498,268 +1461,283 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
+        <v>84</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
         <v>91</v>
       </c>
-      <c r="B5" s="33">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.03</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
-        <v>133</v>
-      </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6">
         <v>0.03</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
+        <v>133</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.03</v>
+      </c>
+      <c r="D7">
         <v>5.23</v>
       </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="32">
         <v>175</v>
       </c>
-      <c r="B7" s="33">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0.05</v>
-      </c>
-      <c r="D7">
-        <v>10.29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
-        <v>217</v>
-      </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
       <c r="C8">
         <v>0.05</v>
       </c>
       <c r="D8">
+        <v>10.29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="32">
+        <v>217</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
         <v>261.42</v>
       </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="32">
         <v>264</v>
       </c>
-      <c r="B9" s="33">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>0.35</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>265.33999999999997</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="32">
         <v>301</v>
       </c>
-      <c r="B10" s="33">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B11" s="32">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>1.55</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>284.72000000000003</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="32">
         <v>342</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B12" s="32">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>5.99</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>257.72000000000003</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
@@ -1804,6 +1782,10 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1815,7 +1797,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1823,388 +1805,388 @@
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C1" s="2"/>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="50">
+        <v>-26</v>
+      </c>
+      <c r="B3" s="50">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>46.03</v>
+      </c>
+      <c r="D3" s="20">
+        <v>291</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="50">
+        <v>0</v>
+      </c>
+      <c r="B4" s="50">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="36">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="50">
+        <v>34</v>
+      </c>
+      <c r="B5" s="50">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1.17</v>
+      </c>
+      <c r="D5" s="20">
+        <v>25.3</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="36">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="50">
+        <v>39</v>
+      </c>
+      <c r="B6" s="50">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="36">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="37">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="50">
         <v>69</v>
       </c>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
-        <v>-26</v>
-      </c>
-      <c r="B3" s="51">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21">
-        <v>46.03</v>
-      </c>
-      <c r="D3" s="21">
-        <v>291</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="51">
-        <v>0</v>
-      </c>
-      <c r="B4" s="51">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="37">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="51">
-        <v>34</v>
-      </c>
-      <c r="B5" s="51">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21">
-        <v>1.17</v>
-      </c>
-      <c r="D5" s="21">
-        <v>25.3</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="37">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="51">
-        <v>39</v>
-      </c>
-      <c r="B6" s="51">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="37">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="38">
-        <v>1</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="51">
-        <v>69</v>
-      </c>
-      <c r="B7" s="51">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="B7" s="50">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20">
         <v>2.95</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>34.82</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="37">
-        <v>1</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="38">
-        <v>1</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="36">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
+        <v>1</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="51">
+      <c r="A8" s="50">
         <v>92</v>
       </c>
-      <c r="B8" s="51">
-        <v>1</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21">
+      <c r="B8" s="50">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20">
         <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="38">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="H8" s="37">
+        <v>1</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="51">
+      <c r="A9" s="50">
         <v>97</v>
       </c>
-      <c r="B9" s="51">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B9" s="50">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>27.85</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="51">
+      <c r="A10" s="50">
         <v>142</v>
       </c>
-      <c r="B10" s="51">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="50">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
         <v>0.93</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>31.76</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
+      <c r="A11" s="50">
         <v>181</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="50">
         <v>2</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>2.04</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>31.07</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="38">
-        <v>1</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
+      <c r="E11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="I15" s="21"/>
-      <c r="O15" s="24"/>
+      <c r="I15" s="20"/>
+      <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="I17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="E18" s="20"/>
-      <c r="I18" s="21"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="E18" s="19"/>
+      <c r="I18" s="20"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="E19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="E19" s="19"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="I20" s="21"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="I21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="I22" s="21"/>
-      <c r="O22" s="36"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="I22" s="20"/>
+      <c r="O22" s="35"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O24" s="24"/>
+      <c r="O24" s="23"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="O25" s="30"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="O25" s="29"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I26" s="21"/>
-      <c r="O26" s="26"/>
+      <c r="I26" s="20"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D27" s="2"/>
@@ -2220,48 +2202,48 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>-45</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0</v>
       </c>
       <c r="C3">
@@ -2279,13 +2261,13 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>-7</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>0</v>
       </c>
       <c r="C4">
@@ -2300,17 +2282,17 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
-        <v>0</v>
-      </c>
-      <c r="B5" s="33">
+      <c r="A5" s="32">
+        <v>0</v>
+      </c>
+      <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
@@ -2321,13 +2303,13 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>28</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6">
@@ -2337,7 +2319,7 @@
         <v>26.63</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
@@ -2348,13 +2330,13 @@
       <c r="H6" s="15">
         <v>1</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>67</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>1</v>
       </c>
       <c r="C7">
@@ -2372,13 +2354,13 @@
       <c r="H7" s="15">
         <v>1</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>88</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
       <c r="C8">
@@ -2396,13 +2378,13 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>92</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>1</v>
       </c>
       <c r="F9">
@@ -2414,13 +2396,13 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>130</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
       <c r="C10">
@@ -2430,7 +2412,7 @@
         <v>128.21</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2441,13 +2423,13 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>172</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>1</v>
       </c>
       <c r="C11" s="16">
@@ -2465,13 +2447,13 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>214</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>2</v>
       </c>
       <c r="C12">
@@ -2481,7 +2463,7 @@
         <v>445.31</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
@@ -2492,57 +2474,57 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -2594,47 +2576,47 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>-84</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0</v>
       </c>
       <c r="C3">
@@ -2644,7 +2626,7 @@
         <v>678.8</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2657,17 +2639,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33">
+      <c r="A4" s="32">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="C4">
         <v>4.08</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -2680,10 +2662,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>27</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="C5">
@@ -2693,7 +2675,7 @@
         <v>12.17</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
@@ -2706,10 +2688,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>31</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="F6" s="9">
@@ -2723,10 +2705,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>62</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>1</v>
       </c>
       <c r="C7">
@@ -2746,10 +2728,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>84</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
       <c r="C8">
@@ -2759,10 +2741,10 @@
         <v>14.03</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2772,10 +2754,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
-        <v>90</v>
-      </c>
-      <c r="B9" s="33">
+      <c r="A9" s="32">
+        <v>89</v>
+      </c>
+      <c r="B9" s="32">
         <v>1</v>
       </c>
       <c r="F9">
@@ -2789,10 +2771,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>126</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
       <c r="C10">
@@ -2802,7 +2784,7 @@
         <v>10.73</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2815,10 +2797,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>168</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>1</v>
       </c>
       <c r="C11">
@@ -2828,7 +2810,7 @@
         <v>12.46</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2841,10 +2823,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>210</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>1</v>
       </c>
       <c r="C12">
@@ -2864,10 +2846,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>258</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>1</v>
       </c>
       <c r="C13">
@@ -2887,10 +2869,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>294</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>2</v>
       </c>
       <c r="C14">
@@ -2900,7 +2882,7 @@
         <v>390.05</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F14" s="9">
         <v>1</v>
@@ -2997,54 +2979,54 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>-12</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0</v>
       </c>
       <c r="C3">
         <v>2.82</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3057,10 +3039,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33">
+      <c r="A4" s="32">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="C4">
@@ -3070,7 +3052,7 @@
         <v>230.9</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -3083,10 +3065,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>28</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="C5">
@@ -3096,7 +3078,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
@@ -3109,10 +3091,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>56</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6">
@@ -3122,7 +3104,7 @@
         <v>7.38</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
@@ -3135,10 +3117,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>84</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>1</v>
       </c>
       <c r="C7">
@@ -3148,7 +3130,7 @@
         <v>6.33</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -3161,10 +3143,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>92</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
       <c r="F8">
@@ -3178,10 +3160,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>134</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>1</v>
       </c>
       <c r="C9">
@@ -3191,7 +3173,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3204,10 +3186,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>182</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
       <c r="C10">
@@ -3217,7 +3199,7 @@
         <v>9.19</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3230,10 +3212,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>217</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>1</v>
       </c>
       <c r="C11">
@@ -3253,10 +3235,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>254</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>1</v>
       </c>
       <c r="C12">
@@ -3276,10 +3258,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>296</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>1</v>
       </c>
       <c r="C13">
@@ -3299,10 +3281,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>338</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>1</v>
       </c>
       <c r="C14">
@@ -3322,10 +3304,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>386</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>2</v>
       </c>
       <c r="C15">
@@ -3335,7 +3317,7 @@
         <v>198.75</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F15" s="9">
         <v>1</v>
@@ -3417,57 +3399,57 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC6D90A-8F10-AC41-847D-FF6B57407F71}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33">
+      <c r="A3" s="32">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32">
         <v>1</v>
       </c>
       <c r="C3">
         <v>12.22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
@@ -3480,10 +3462,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>31</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="C4">
@@ -3493,7 +3475,7 @@
         <v>29.36</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -3501,129 +3483,155 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="15">
-        <v>1</v>
+      <c r="H4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
+        <v>32</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
         <v>63</v>
       </c>
-      <c r="B5" s="33">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0.31</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>29.56</v>
       </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
+        <v>84</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32">
         <v>88</v>
       </c>
-      <c r="B6" s="33">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0.17</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>25.53</v>
       </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="32">
         <v>92</v>
       </c>
-      <c r="B7" s="33">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="B9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="32">
         <v>130</v>
       </c>
-      <c r="B8" s="33">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1.66</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>1007.15</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32">
         <v>172</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>5.54</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>895.84</v>
       </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -3692,6 +3700,14 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3703,42 +3719,42 @@
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33">
+      <c r="A3" s="32">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32">
         <v>1</v>
       </c>
       <c r="C3">
@@ -3748,7 +3764,7 @@
         <v>475.16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
@@ -3761,10 +3777,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>28</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="C4">
@@ -3774,7 +3790,7 @@
         <v>10.4</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -3787,10 +3803,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>57</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="C5">
@@ -3800,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
@@ -3813,10 +3829,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>84</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6">
@@ -3826,10 +3842,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -3839,10 +3855,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
-        <v>92</v>
-      </c>
-      <c r="B7" s="33">
+      <c r="A7" s="32">
+        <v>89</v>
+      </c>
+      <c r="B7" s="32">
         <v>1</v>
       </c>
       <c r="F7">
@@ -3856,10 +3872,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>131</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
       <c r="C8">
@@ -3879,10 +3895,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>173</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>1</v>
       </c>
       <c r="C9">
@@ -3902,10 +3918,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>215</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
       <c r="C10">
@@ -3925,10 +3941,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>256</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>1</v>
       </c>
       <c r="C11">
@@ -3948,10 +3964,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>299</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>2</v>
       </c>
       <c r="C12">
@@ -3961,7 +3977,7 @@
         <v>76.319999999999993</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
@@ -4043,70 +4059,70 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>-27</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0</v>
       </c>
       <c r="C3">
         <v>36.31</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>-8</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>0</v>
       </c>
       <c r="C4">
@@ -4116,60 +4132,63 @@
         <v>1600</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+        <v>69</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
-        <v>0</v>
-      </c>
-      <c r="B5" s="33">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="A5" s="32">
+        <v>0</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="34">
+        <v>1</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>31</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
+        <v>70</v>
+      </c>
+      <c r="F6" s="34">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>64</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>1</v>
       </c>
       <c r="C7">
@@ -4178,21 +4197,21 @@
       <c r="D7">
         <v>41.6</v>
       </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="F7" s="34">
+        <v>1</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>85</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
       <c r="C8">
@@ -4201,38 +4220,38 @@
       <c r="D8">
         <v>37.549999999999997</v>
       </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="34">
+        <v>1</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>92</v>
       </c>
-      <c r="B9" s="33">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="B9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>132</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
       <c r="C10">
@@ -4241,21 +4260,21 @@
       <c r="D10">
         <v>649</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>166</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>1</v>
       </c>
       <c r="C11">
@@ -4264,33 +4283,33 @@
       <c r="D11">
         <v>866</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>174</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="34">
+        <v>1</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32">
         <v>0</v>
       </c>
     </row>
@@ -4371,18 +4390,6 @@
       <c r="B31" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBB1FDC-D3F5-AA41-8900-491C64C5B6BC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4391,8 +4398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C14AFE-F270-204A-927D-29C6B6D8B3D3}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4402,33 +4409,33 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>66</v>
+      <c r="A2" s="49" t="s">
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>0</v>
       </c>
       <c r="B3">
@@ -4443,20 +4450,20 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="32">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33">
-        <v>0</v>
-      </c>
-      <c r="H3" s="33">
-        <v>0</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>22</v>
       </c>
       <c r="B4">
@@ -4468,39 +4475,42 @@
       <c r="D4">
         <v>23.4</v>
       </c>
-      <c r="F4" s="32">
-        <v>1</v>
-      </c>
-      <c r="G4" s="33">
-        <v>0</v>
-      </c>
-      <c r="H4" s="33">
-        <v>0</v>
-      </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="F5" s="32">
-        <v>1</v>
-      </c>
-      <c r="G5" s="34">
-        <v>1</v>
-      </c>
-      <c r="H5" s="33">
-        <v>0</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>57</v>
       </c>
       <c r="B6">
@@ -4509,20 +4519,20 @@
       <c r="C6">
         <v>5.29</v>
       </c>
-      <c r="F6" s="32">
-        <v>1</v>
-      </c>
-      <c r="G6" s="34">
-        <v>1</v>
-      </c>
-      <c r="H6" s="33">
-        <v>0</v>
-      </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="33">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>91</v>
       </c>
       <c r="B7">
@@ -4535,41 +4545,41 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="33">
-        <v>0</v>
-      </c>
-      <c r="G7" s="34">
-        <v>1</v>
-      </c>
-      <c r="H7" s="33">
-        <v>0</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>96</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="F8" s="33">
-        <v>0</v>
-      </c>
-      <c r="G8" s="33">
-        <v>0</v>
-      </c>
-      <c r="H8" s="33">
-        <v>0</v>
-      </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>147</v>
       </c>
       <c r="B9">
@@ -4582,22 +4592,22 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="33">
-        <v>0</v>
-      </c>
-      <c r="G9" s="33">
-        <v>0</v>
-      </c>
-      <c r="H9" s="33">
-        <v>0</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>204</v>
       </c>
       <c r="B10">
@@ -4609,20 +4619,20 @@
       <c r="D10">
         <v>499</v>
       </c>
-      <c r="F10" s="33">
-        <v>0</v>
-      </c>
-      <c r="G10" s="33">
-        <v>0</v>
-      </c>
-      <c r="H10" s="33">
-        <v>0</v>
-      </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>253</v>
       </c>
       <c r="B11">
@@ -4634,110 +4644,110 @@
       <c r="D11">
         <v>562.29999999999995</v>
       </c>
-      <c r="F11" s="35">
-        <v>1</v>
-      </c>
-      <c r="G11" s="33">
-        <v>0</v>
-      </c>
-      <c r="H11" s="33">
-        <v>0</v>
-      </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="F11" s="34">
+        <v>1</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="F12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="F13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="F14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="F15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="F16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="F17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
+      <c r="F17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="F18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="F19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="F19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="F20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="F20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="F21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="F21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="F22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="F23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="F23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="F24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="F24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
@@ -4745,20 +4755,20 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="40"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="4"/>
       <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="F26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="F26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -4770,46 +4780,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A490ED41-424C-5D4E-BB31-E4B10675E9FD}">
-  <dimension ref="A2:H46"/>
+  <dimension ref="A2:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>-37</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0</v>
       </c>
       <c r="C3">
@@ -4826,14 +4836,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33">
+      <c r="A4" s="32">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -4846,10 +4856,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>33</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="C5">
@@ -4859,49 +4869,40 @@
         <v>4.2</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
+        <v>34</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="32">
         <v>67</v>
       </c>
-      <c r="B6" s="33">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
-        <v>91</v>
-      </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>1</v>
       </c>
       <c r="C7">
@@ -4911,10 +4912,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
@@ -4924,63 +4925,54 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
-        <v>108</v>
-      </c>
-      <c r="B8" s="33">
+      <c r="A8" s="32">
+        <v>84</v>
+      </c>
+      <c r="B8" s="32">
         <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="G8" s="6">
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
-        <v>131</v>
-      </c>
-      <c r="B9" s="33">
+      <c r="A9" s="32">
+        <v>91</v>
+      </c>
+      <c r="B9" s="32">
         <v>1</v>
       </c>
       <c r="C9">
         <v>0.01</v>
       </c>
       <c r="D9">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="G9" s="6">
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
-        <v>173</v>
-      </c>
-      <c r="B10" s="33">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-      <c r="D10">
-        <v>275.3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
+      <c r="A10" s="32">
+        <v>108</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4993,274 +4985,318 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
-        <v>217</v>
-      </c>
-      <c r="B11" s="33">
+      <c r="A11" s="32">
+        <v>131</v>
+      </c>
+      <c r="B11" s="32">
         <v>1</v>
       </c>
       <c r="C11">
         <v>0.01</v>
       </c>
       <c r="D11">
+        <v>3.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="32">
+        <v>173</v>
+      </c>
+      <c r="B12" s="32">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12">
+        <v>275.3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="32">
+        <v>217</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
         <v>202.8</v>
       </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="32">
         <v>259</v>
       </c>
-      <c r="B12" s="33">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B14" s="32">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0.05</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>229.4</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="32">
         <v>304</v>
       </c>
-      <c r="B13" s="33">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B15" s="32">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>0.05</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>232</v>
       </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="32">
         <v>350</v>
       </c>
-      <c r="B14" s="33">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B16" s="32">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>0.19</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>179.2</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="32">
         <v>388</v>
       </c>
-      <c r="B15" s="33">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>247.2</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="33">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="32">
         <v>427</v>
       </c>
-      <c r="B16" s="33">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B18" s="32">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>0.39</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>291.8</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="33">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="32">
         <v>469</v>
       </c>
-      <c r="B17" s="33">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B19" s="32">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>0.51</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>184.9</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="33">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="32">
         <v>511</v>
       </c>
-      <c r="B18" s="33">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B20" s="32">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>0.73</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>323.7</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="33">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="32">
         <v>551</v>
       </c>
-      <c r="B19" s="33">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B21" s="32">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>0.8</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>237</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="33">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
         <v>598</v>
       </c>
-      <c r="B20" s="33">
-        <v>1</v>
-      </c>
-      <c r="C20">
+      <c r="B22" s="32">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>1.63</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>243.14</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="33">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="32">
         <v>640</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B23" s="32">
         <v>2</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>2.2799999999999998</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>241.78</v>
       </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
@@ -5287,48 +5323,48 @@
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
@@ -5361,6 +5397,14 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5372,42 +5416,42 @@
   <dimension ref="A2:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>-14</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0</v>
       </c>
       <c r="C3">
@@ -5427,17 +5471,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33">
+      <c r="A4" s="32">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="C4">
         <v>2.2000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -5450,10 +5494,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>28</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="C5">
@@ -5463,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
@@ -5476,10 +5520,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>56</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6">
@@ -5489,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
@@ -5502,10 +5546,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>85</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>1</v>
       </c>
       <c r="C7">
@@ -5515,7 +5559,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -5528,10 +5572,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>92</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
       <c r="F8">
@@ -5545,10 +5589,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>127</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>1</v>
       </c>
       <c r="C9">
@@ -5558,7 +5602,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -5571,10 +5615,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>169</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
       <c r="C10">
@@ -5594,13 +5638,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>211</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>2.27</v>
       </c>
       <c r="D11">
@@ -5622,17 +5666,17 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -5749,17 +5793,17 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="E43" s="39"/>
+      <c r="E43" s="38"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="E44" s="39"/>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="E45" s="39"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
@@ -5779,47 +5823,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D6E558-C3B7-E94D-A84E-4D93E6E46033}">
-  <dimension ref="A2:M46"/>
+  <dimension ref="A2:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33">
+      <c r="A3" s="32">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32">
         <v>1</v>
       </c>
       <c r="C3">
@@ -5837,71 +5881,71 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>29</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="C4">
         <v>2.31</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
+        <v>31</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
         <v>71</v>
       </c>
-      <c r="B5" s="33">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0.18</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
-        <v>92</v>
-      </c>
-      <c r="B6" s="33">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -5909,320 +5953,358 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
+        <v>84</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="32">
         <v>98</v>
       </c>
-      <c r="B7" s="33">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0.09</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="32">
+        <v>100</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="32">
         <v>143</v>
       </c>
-      <c r="B8" s="33">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>80.3</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="32">
         <v>185</v>
       </c>
-      <c r="B9" s="33">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B11" s="32">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>1.79</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>402.2</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="32">
         <v>227</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B12" s="32">
         <v>2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C12" s="19">
         <v>3.58</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>308.3</v>
       </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="M39" s="21"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="M40" s="21"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="M41" s="21"/>
+      <c r="M41" s="20"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="M42" s="21"/>
+      <c r="M42" s="20"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="M43" s="21"/>
+      <c r="M43" s="20"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="M44" s="21"/>
+      <c r="M44" s="20"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="M45" s="21"/>
+      <c r="M45" s="20"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="M47" s="20"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6235,44 +6317,44 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>-33</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0</v>
       </c>
       <c r="C3">
@@ -6290,14 +6372,17 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33">
+      <c r="A4" s="32">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="10">
@@ -6309,14 +6394,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>14</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="C5">
@@ -6325,9 +6410,6 @@
       <c r="D5">
         <v>104.7</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" s="10">
         <v>1</v>
       </c>
@@ -6337,14 +6419,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>46</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6">
@@ -6362,22 +6444,19 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>77</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>1</v>
       </c>
       <c r="C7">
         <v>0.09</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="F7" s="10">
         <v>1</v>
       </c>
@@ -6387,14 +6466,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>92</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
       <c r="F8">
@@ -6406,14 +6485,14 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>128</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>1</v>
       </c>
       <c r="C9">
@@ -6423,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6434,14 +6513,14 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>162</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>2</v>
       </c>
       <c r="C10">
@@ -6462,230 +6541,230 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="23"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="22"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="24"/>
+      <c r="C49" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6697,40 +6776,40 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6767,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -6812,11 +6891,11 @@
       <c r="C6">
         <v>0.01</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>3.4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6842,7 +6921,7 @@
         <v>3.9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6965,10 +7044,10 @@
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N31" s="4"/>
@@ -6984,50 +7063,50 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B700F4C-B9A3-B84E-9A2D-AF82A94E5913}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33">
+      <c r="A3" s="32">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32">
         <v>1</v>
       </c>
       <c r="C3">
@@ -7036,8 +7115,8 @@
       <c r="D3">
         <v>339.5</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>54</v>
+      <c r="E3" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
@@ -7050,17 +7129,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>35</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="C4">
         <v>0.15</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -7073,10 +7152,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>97</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="C5">
@@ -7086,7 +7165,7 @@
         <v>13.4</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
@@ -7094,19 +7173,19 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="H5" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
-        <v>122</v>
-      </c>
-      <c r="B6" s="33">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="A6" s="32">
+        <v>100</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7116,304 +7195,317 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
+        <v>112</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32">
         <v>139</v>
       </c>
-      <c r="B7" s="33">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0.01</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>23.2</v>
       </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="32">
         <v>189</v>
       </c>
-      <c r="B8" s="33">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B9" s="32">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>0.08</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>318.7</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="32">
         <v>231</v>
       </c>
-      <c r="B9" s="33">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>0.17</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>248.26</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="32">
         <v>267</v>
       </c>
-      <c r="B10" s="33">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="B11" s="32">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>0.46</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>214</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="32">
         <v>310</v>
       </c>
-      <c r="B11" s="33">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B12" s="32">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>0.86</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>265.73</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="32">
         <v>352</v>
       </c>
-      <c r="B12" s="33">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B13" s="32">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>1.17</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>262.82</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="32">
         <v>391</v>
       </c>
-      <c r="B13" s="33">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B14" s="32">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>1.46</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>192.73</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="32">
         <v>433</v>
       </c>
-      <c r="B14" s="33">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B15" s="32">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>1.28</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>181.77</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="32">
         <v>475</v>
       </c>
-      <c r="B15" s="33">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B16" s="32">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>1.94</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>290.58999999999997</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="33">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="32">
         <v>518</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B17" s="32">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>2.06</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>328.25</v>
       </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
@@ -7428,6 +7520,10 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7439,47 +7535,47 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33">
+      <c r="A3" s="32">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32">
         <v>1</v>
       </c>
       <c r="C3">
@@ -7489,7 +7585,7 @@
         <v>895.9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
@@ -7502,10 +7598,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>31</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
       <c r="C4">
@@ -7515,7 +7611,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -7528,14 +7624,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>41</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
@@ -7548,10 +7644,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>101</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6">
@@ -7571,30 +7667,27 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
+        <v>112</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32">
         <v>119</v>
       </c>
-      <c r="B7" s="33">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
-        <v>122</v>
-      </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
       <c r="F8">
@@ -7608,10 +7701,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>154</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>1</v>
       </c>
       <c r="C9">
@@ -7631,10 +7724,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>208</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>2</v>
       </c>
       <c r="C10">
@@ -7644,7 +7737,7 @@
         <v>600.70000000000005</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
@@ -7691,28 +7784,28 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="19"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
@@ -7721,36 +7814,36 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="O25" s="24"/>
+      <c r="O25" s="23"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="J28" s="24"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="O29" s="24"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="O29" s="23"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F35" s="2"/>
